--- a/Registry.xlsx
+++ b/Registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonahJ\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonahJ\Projects\Personal\Macro303\The-Pensieve\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA371E-9DF3-4150-A776-958506AF6725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7C2DD8-F664-4B22-B8CD-BEB76DC52928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{9414508C-AF36-4FB0-AE26-C382B0EFCF81}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{9414508C-AF36-4FB0-AE26-C382B0EFCF81}"/>
   </bookViews>
   <sheets>
     <sheet name="Threat" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="290">
   <si>
     <t>Family</t>
   </si>
@@ -784,6 +784,135 @@
   </si>
   <si>
     <t>Brilliant Circus Arcanus Tent</t>
+  </si>
+  <si>
+    <t>Professor Snape</t>
+  </si>
+  <si>
+    <t>Young Peter Pettigrew</t>
+  </si>
+  <si>
+    <t>Brilliant Circus Arcanus Backstage</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Lost Love</t>
+  </si>
+  <si>
+    <t>Brilliant Headmistress' Office</t>
+  </si>
+  <si>
+    <t>Brilliant Snape's Office</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Darkest of Times</t>
+  </si>
+  <si>
+    <t>Brilliant Great Hall</t>
+  </si>
+  <si>
+    <t>Brilliant Headmaster's Office</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Christmas Calamity</t>
+  </si>
+  <si>
+    <t>Brilliant Yule Ball Dance Floor I</t>
+  </si>
+  <si>
+    <t>Brilliant Hermione and Viktor</t>
+  </si>
+  <si>
+    <t>Brilliant Yule Ball Dance Floor II</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Stronger United</t>
+  </si>
+  <si>
+    <t>Brilliant Ministry Atrium</t>
+  </si>
+  <si>
+    <t>Brilliant Nymphadora Tonks</t>
+  </si>
+  <si>
+    <t>Brilliant Mad-Eye Moody</t>
+  </si>
+  <si>
+    <t>Brilliant Ministry Lift</t>
+  </si>
+  <si>
+    <t>Brilliant Arthur Weasley</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Fighting Forces</t>
+  </si>
+  <si>
+    <t>Brilliant Malfoy Manor</t>
+  </si>
+  <si>
+    <t>Brilliant 12 Grimmauld Place</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Back to Hogwarts</t>
+  </si>
+  <si>
+    <t>Brilliant Platform 9 3/4</t>
+  </si>
+  <si>
+    <t>Brilliant Hufflepuff Student</t>
+  </si>
+  <si>
+    <t>Brilliant Hogwarts Gates</t>
+  </si>
+  <si>
+    <t>Hogsmeade Sign</t>
+  </si>
+  <si>
+    <t>Brilliant Sorting Hat</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Potter's Calamity</t>
+  </si>
+  <si>
+    <t>Brilliant Gryffindor Dormitory</t>
+  </si>
+  <si>
+    <t>Brilliant Quidditch Captain Harry</t>
+  </si>
+  <si>
+    <t>Harry's School Trunk</t>
+  </si>
+  <si>
+    <t>Harry's Weasley Jumper</t>
+  </si>
+  <si>
+    <t>Brilliant Hedwig</t>
+  </si>
+  <si>
+    <t>Brilliant Harry's Desk</t>
+  </si>
+  <si>
+    <t>Hogwarts Heroes Daily Prophet</t>
+  </si>
+  <si>
+    <t>Brilliant Event: Fantastic Flora and Fauna</t>
+  </si>
+  <si>
+    <t>Brilliant Forbidden Forest</t>
+  </si>
+  <si>
+    <t>Brilliant Unicorn</t>
+  </si>
+  <si>
+    <t>Brilliant Buckbeak</t>
+  </si>
+  <si>
+    <t>Brilliant Scorched Tree Stump</t>
+  </si>
+  <si>
+    <t>Brilliant Young Acromantula</t>
+  </si>
+  <si>
+    <t>Brilliant Snargaluff</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1486,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3588E94B-A509-42CD-8280-9FB2436DDB06}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,7 +1532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1453,7 +1583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1521,7 +1651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1538,7 +1668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1572,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1606,7 +1736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1623,7 +1753,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1770,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1674,7 +1804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1708,7 +1838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1725,7 +1855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1742,7 +1872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1759,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1776,7 +1906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1810,7 +1940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1827,7 +1957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1861,7 +1991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1878,7 +2008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1895,7 +2025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>32</v>
       </c>
@@ -1912,7 +2042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1929,7 +2059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1946,7 +2076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1963,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -1980,7 +2110,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1997,7 +2127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2031,7 +2161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -2048,7 +2178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -2065,7 +2195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -2082,7 +2212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2099,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2116,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2133,7 +2263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2150,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2167,7 +2297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2184,7 +2314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2201,7 +2331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2218,7 +2348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -2235,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2252,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -2269,7 +2399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -2286,7 +2416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -2303,7 +2433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -2320,7 +2450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2337,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -2354,7 +2484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -2371,7 +2501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2388,7 +2518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -2398,14 +2528,14 @@
       <c r="C60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>17</v>
+      <c r="D60" t="s">
+        <v>15</v>
       </c>
       <c r="E60" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2415,14 +2545,14 @@
       <c r="C61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D61" t="s">
-        <v>15</v>
+      <c r="D61" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E61" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2432,31 +2562,31 @@
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>59</v>
+      <c r="D62" t="s">
+        <v>17</v>
       </c>
       <c r="E62" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E63" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2490,24 +2620,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>63</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>59</v>
+      <c r="C66" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E66" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2517,14 +2647,14 @@
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>17</v>
+      <c r="D67" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E67" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2541,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -4816,7 +4946,49 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H200" xr:uid="{43686649-5514-4D9D-BA6B-CD2B41D9EF69}"/>
+  <autoFilter ref="A1:H200" xr:uid="{43686649-5514-4D9D-BA6B-CD2B41D9EF69}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Legends of Hogwarts"/>
+        <filter val="Magical Games and Sports"/>
+        <filter val="Magizoology"/>
+        <filter val="Ministry of Magic"/>
+        <filter val="Mysterious Artefacts"/>
+        <filter val="Oddities"/>
+        <filter val="Wonders of the Wizarding World"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Central Park"/>
+        <filter val="Courtroom Ten"/>
+        <filter val="Dumbledore's Office"/>
+        <filter val="Hogwarts Gate"/>
+        <filter val="Hogwarts Quidditch Pitch"/>
+        <filter val="Hogwarts Quidditch Pitch II"/>
+        <filter val="Hogwarts Quidditch Stands"/>
+        <filter val="King's Cross Station"/>
+        <filter val="Ministry Atrium"/>
+        <filter val="Ministry Atrium II"/>
+        <filter val="New York City Street"/>
+        <filter val="Newt's Case"/>
+        <filter val="Oddities I"/>
+        <filter val="Oddities II"/>
+        <filter val="Oddities III"/>
+        <filter val="Oddities IV"/>
+        <filter val="Oddities V"/>
+        <filter val="Room of Requirement I"/>
+        <filter val="Room of Requirement II"/>
+        <filter val="Room of Requirement III"/>
+        <filter val="Room of Requirement IV"/>
+        <filter val="Room of Requirement V"/>
+        <filter val="Triwizard Maze"/>
+        <filter val="Weasleys' Wizarding Wheezes"/>
+        <filter val="World Cup Grounds"/>
+        <filter val="Yule Ball Great Hall"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H200">
     <sortCondition ref="A2:A200"/>
     <sortCondition ref="B2:B200"/>
@@ -6448,15 +6620,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95ADBCB-2913-482F-83F7-B018FEAC8491}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -6494,101 +6666,101 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>272</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
+        <v>272</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>272</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
@@ -6596,44 +6768,44 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>270</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -6642,66 +6814,66 @@
         <v>13</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E11" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>238</v>
+        <v>270</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -6710,72 +6882,72 @@
         <v>24</v>
       </c>
       <c r="E14" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E15" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B16" t="s">
-        <v>240</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>257</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -6783,78 +6955,78 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E19" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>13</v>
+      <c r="D20" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E21" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E22" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B23" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>11</v>
@@ -6863,117 +7035,117 @@
         <v>13</v>
       </c>
       <c r="E23" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>59</v>
+      <c r="D24" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E24" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E25" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E27" s="7">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E28" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>59</v>
+      <c r="D29" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E29" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>11</v>
@@ -6987,78 +7159,78 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E31" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>24</v>
+      <c r="D32" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E32" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>59</v>
+      <c r="D33" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E33" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E34" s="7">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B35" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>11</v>
@@ -7072,10 +7244,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -7089,10 +7261,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>11</v>
@@ -7106,44 +7278,44 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E38" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>24</v>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E39" s="7">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B40" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>11</v>
@@ -7152,38 +7324,38 @@
         <v>13</v>
       </c>
       <c r="E40" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B41" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>284</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E41" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>284</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E42" s="7">
         <v>1</v>
@@ -7191,23 +7363,1711 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>59</v>
+        <v>284</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E43" s="7">
         <v>3</v>
       </c>
     </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>283</v>
+      </c>
+      <c r="B46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>266</v>
+      </c>
+      <c r="B47" t="s">
+        <v>268</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>266</v>
+      </c>
+      <c r="B50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>266</v>
+      </c>
+      <c r="B54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" t="s">
+        <v>267</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B57" t="s">
+        <v>267</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>266</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>250</v>
+      </c>
+      <c r="B61" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" t="s">
+        <v>251</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="B65" t="s">
+        <v>252</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>250</v>
+      </c>
+      <c r="B66" t="s">
+        <v>252</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>250</v>
+      </c>
+      <c r="B69" t="s">
+        <v>252</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>250</v>
+      </c>
+      <c r="B70" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>231</v>
+      </c>
+      <c r="B71" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>275</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>275</v>
+      </c>
+      <c r="B84" t="s">
+        <v>276</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>275</v>
+      </c>
+      <c r="B85" t="s">
+        <v>276</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" t="s">
+        <v>276</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E86" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" t="s">
+        <v>276</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" t="s">
+        <v>276</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>275</v>
+      </c>
+      <c r="B89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" t="s">
+        <v>281</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>275</v>
+      </c>
+      <c r="B91" t="s">
+        <v>281</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" t="s">
+        <v>281</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" t="s">
+        <v>281</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>260</v>
+      </c>
+      <c r="B97" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E97" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" t="s">
+        <v>261</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>260</v>
+      </c>
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>260</v>
+      </c>
+      <c r="B100" t="s">
+        <v>261</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>260</v>
+      </c>
+      <c r="B101" t="s">
+        <v>264</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>260</v>
+      </c>
+      <c r="B102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" t="s">
+        <v>264</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E103" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>260</v>
+      </c>
+      <c r="B104" t="s">
+        <v>264</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" t="s">
+        <v>264</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>264</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E106" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" t="s">
+        <v>243</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>242</v>
+      </c>
+      <c r="B109" t="s">
+        <v>243</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>242</v>
+      </c>
+      <c r="B110" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E110" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>242</v>
+      </c>
+      <c r="B111" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>242</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>242</v>
+      </c>
+      <c r="B114" t="s">
+        <v>244</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E114" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>242</v>
+      </c>
+      <c r="B116" t="s">
+        <v>244</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="B118" t="s">
+        <v>244</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>239</v>
+      </c>
+      <c r="B119" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="B122" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E122" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>239</v>
+      </c>
+      <c r="B124" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>239</v>
+      </c>
+      <c r="B125" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" t="s">
+        <v>241</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" t="s">
+        <v>241</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>239</v>
+      </c>
+      <c r="B128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>239</v>
+      </c>
+      <c r="B129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>239</v>
+      </c>
+      <c r="B130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>245</v>
+      </c>
+      <c r="B133" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>245</v>
+      </c>
+      <c r="B134" t="s">
+        <v>249</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E135" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>245</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>245</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>245</v>
+      </c>
+      <c r="B138" t="s">
+        <v>246</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>245</v>
+      </c>
+      <c r="B139" t="s">
+        <v>246</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" t="s">
+        <v>246</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>245</v>
+      </c>
+      <c r="B141" t="s">
+        <v>246</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>245</v>
+      </c>
+      <c r="B142" t="s">
+        <v>246</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E142" s="7">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H1" xr:uid="{B6E8A9E1-B6DE-4482-939F-6EE58AB602E5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H142">
+    <sortCondition ref="A2:A142"/>
+    <sortCondition ref="B2:B142"/>
+    <sortCondition ref="C2:C142"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -7235,6 +9095,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D0C00EBDD76584EB2F0B1C7AF1B10E5" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe1bd4a12cf9f16b04d1ab5380ff92d0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="34f85714-f79c-4fa7-bb09-edf4702ce279" xmlns:ns4="0b1a7d34-39b9-41f6-8533-418c3e397d3e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e87c87f41fc3c95ae0aae85edc26397" ns3:_="" ns4:_="">
     <xsd:import namespace="34f85714-f79c-4fa7-bb09-edf4702ce279"/>
@@ -7445,15 +9314,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7461,6 +9321,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52958949-2E78-4B8C-BA23-4CF9D1199E7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4498F2E5-789D-47A7-B2BB-C08F8D4F5320}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7475,14 +9343,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52958949-2E78-4B8C-BA23-4CF9D1199E7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
